--- a/alpha.xlsx
+++ b/alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>PRICE</t>
   </si>
@@ -40,6 +40,78 @@
     <t>INFO</t>
   </si>
   <si>
+    <t>310€</t>
+  </si>
+  <si>
+    <t>9m²</t>
+  </si>
+  <si>
+    <t>3er WG (1w,1m,0d)</t>
+  </si>
+  <si>
+    <t>01.10.2021</t>
+  </si>
+  <si>
+    <t>Online: 29 Minuten</t>
+  </si>
+  <si>
+    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Hadern.1483570.html</t>
+  </si>
+  <si>
+    <t>NOCH FREI!! Ideal für Pendler! Helles, schönes Zimmer (ca. 9 qm, Westseite – schön sonnig, ruhig, viel Grün, großes Fenster) in freundlicher 4-Zi.-Whg. bei Mutter mit 21-jährigem Sohn (Azubi) nur an weibliche, berufstätige (mit festen Arbeitszeiten) und regelmäßige WOCHENENDHEIMFAHRERIN (jedes Wochenende, deutschsprachig - dies wäre die einzige Voraussetzung!) zu vermieten. Das Zimmer ist modern möbliert: Bett (100 x 200 cm), Schreibtisch, Stuhl, Schrank, TV, Regal), Bad- und Küchenmitbenutzung, Spül- und Kaffeemaschine, Mikrowelle vorhanden. Rauchen in der Whg. erlaubt. Miete: 310,- EUR inkl. ab 01.10.21 in Großhadern (7 Geh-Minuten zur U6 - Endstation Klinikum Großhadern).
+Bitte in der Anfrage schreiben, ob du eine Wochenendheimfahrerin bist, ansonsten werden Anfragen gelöscht.</t>
+  </si>
+  <si>
+    <t>U-Bahn in 7 Gehminuten, Penny, Rewe, Edeka, Metzger, Bäcker, Ärzte alles fußläufig gut erreichbar. Mit U-Bahn in 17 Minuten am Marienplatz. Mit Bus in 15 Minuten in Pasing.
+Ruhige Lage am Stadtrand Münchens mit viel Grün, Wald und Park.</t>
+  </si>
+  <si>
+    <t>Nette Mama mit 21-jährigem Sohn (Azubi), sind beide unkompliziert ;-)
+Es müssen von Dir keine Putzarbeiten übernommen werden, wie Toilette oder Bad putzen, keine Spülmaschine ausräumen, kein saugen und wischen ;-))
+Du bist aber allein für Dein Zimmer verantwortlich (wird von uns nicht betreten).</t>
+  </si>
+  <si>
+    <t>Kaution: 300,-- EUR.
+Kündigungsfrist: 4 Wochen.
+Gerne längerfristig zu mieten.</t>
+  </si>
+  <si>
+    <t>370€</t>
+  </si>
+  <si>
+    <t>16m²</t>
+  </si>
+  <si>
+    <t>4er WG (1w,0m,0d)</t>
+  </si>
+  <si>
+    <t>Online: 41 Minuten</t>
+  </si>
+  <si>
+    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Maxvorstadt.8922743.html</t>
+  </si>
+  <si>
+    <t>Barrierefrei
+teilmöbliert
+Dusche
+DSL 50-100 Mbit/s
+Satellit
+Parkett, Laminat, Dielen
+Waschmaschine, Spülmaschine, Terrasse</t>
+  </si>
+  <si>
+    <t>Das Zimmer ist super hell, ruhig und möbliert, mit einem kleinen Schreibtisch, Couchtisch, Kleiderschrank und einer Schlafcouch. Wenn du noch eigene Möbel mitbringen willst ist das kein Problem. In der Wohnung ist alles vorhanden, z.B. eine Waschmaschine. Das Bad hat eine große ebenerdige Dusche</t>
+  </si>
+  <si>
+    <t>Die schön wohnung befindet sich im 1. Stock und ist gut ans öffentliche Verkehrsnetz angebunden. Der Bus hält quasi vor der Tür. super zentral gelegen mit vielen netten Cafés, Bars und Einkaufsmöglichkeiten. Einkaufsmöglichkeiten gibt es reichlich</t>
+  </si>
+  <si>
+    <t>Da ich viel arbeite, ist das WG-Leben eher ruhig, aber ich freue mich über Gesellschaft. Es soll keine Zweck-WG sein und wir können gerne zusammen kochen, ein Bier in der Schanze trinken oder ins Kino gehen. Ich suche eine offene Person, die WG-erfahren ist und Lust darauf hat, hier ein neues Zuhause zu finden.</t>
+  </si>
+  <si>
+    <t>Was kann ich sonst noch über die Wohnung erzählen. Die Wohnung hat 4 Zimmer, 3 Badezimmer und eine Küche und ist komplett ausgestattet. Im Haus wohnen sehr respektvolle Menschen, sodass ein ruhiges Wohnen garantiert ist. Ich freue mich auf deine Anfrage</t>
+  </si>
+  <si>
     <t>435€</t>
   </si>
   <si>
@@ -49,10 +121,7 @@
     <t>2er WG (0w,1m,0d)</t>
   </si>
   <si>
-    <t>01.10.2021</t>
-  </si>
-  <si>
-    <t>Online: 37 Minuten</t>
+    <t>Online: 1 Stunde</t>
   </si>
   <si>
     <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Maxvorstadt.8884745.html</t>
@@ -95,9 +164,6 @@
   </si>
   <si>
     <t>22m²</t>
-  </si>
-  <si>
-    <t>Online: 38 Minuten</t>
   </si>
   <si>
     <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Maxvorstadt.5725676.html</t>
@@ -241,7 +307,7 @@
     <t>3er WG (0w,2m,0d)</t>
   </si>
   <si>
-    <t>Online: 59 Minuten</t>
+    <t>Online: 2 Stunden</t>
   </si>
   <si>
     <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Oberhaching.7359933.html</t>
@@ -311,393 +377,38 @@
     <t>400€</t>
   </si>
   <si>
-    <t>14m²</t>
-  </si>
-  <si>
-    <t>Online: 2 Stunden</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Ludwigsvorstadt-Isarvorstadt.8886611.html</t>
-  </si>
-  <si>
-    <t>möbliert
-WLAN
-Kabel
-Waschmaschine, Spülmaschine</t>
-  </si>
-  <si>
-    <t>Hallo liebe/r Zimmersuchende/r
-Es ist soweit - unsere WG in der Tumblingerstraße im schönen München Ludwigvorstadt-Isarvorstadt sucht einen neuen Mitbewohner bzw. Mitbewohnerin!
-Das Zimmer das bei uns frei wird ist 14qm groß, hat ein großes Fenster und, wie die restliche Wohnung, dunkles edles Parkett. Es wird komplett möbliert vermietet, das bedeutet Bett, Schrank, Schreibtisch etc. ist alles schon vorhanden, du könntest also direkt einziehen, wenn es persönlich mit dem Rest der WG passt :) Die Ausstattung ist neu, hochwertig und stilvoll, also keine Sorge, dich erwartet kein komplett Birkenfurnier-Alptraum, sondern eine moderne Wohlfühlatmosphäre.
-Die gesamte restliche Wohnung könnte man ähnlich beschreiben. Küche und Bad sind komplett neu und wir haben eigentlich alles dort, was man irgendwie brauchen könnte.</t>
-  </si>
-  <si>
-    <t>Der schöne Altbau, in dem sich unsere WG befindet, liegt in Ludwigvorstadt-Isarvorstadt. Hier gibt es viel zu sehen und zu erleben, ob man jetzt die vielen Cafés und Läden entdecken möchte oder einfach nur an der Isar chillen will. Hier gibt es eigentlich nichts was man vermissen könnte.
-Die Lage ist außerdem recht ruhig, dafür dass man so zentral in der Stadt ist. Im Sommer bei offenem Fenster schlafen ist absolut möglich ohne von zu vielLärm gestört zu werden.
-Wenn man auf Öffis angewiesen ist gibt es direkt in der Nähe eine Bushaltestelle und auch eine Straßenbahnhaltestelle, aber auch zu Fuß sind die Wege recht kurz.</t>
-  </si>
-  <si>
-    <t>Falls du Fragen oder Interesse hast, melde dich einfach, wir beißen nicht :)
-Am besten du schreibst mir eine kurze Nachricht wer du bist, was du machst und was du eben sonst noch so erzählen willst.
-Wir freuen uns schon dich eventuell bald als neuen Mitbewohner zu begrüßen.
-Liebe Grüße</t>
-  </si>
-  <si>
-    <t>310€</t>
-  </si>
-  <si>
-    <t>9m²</t>
-  </si>
-  <si>
-    <t>3er WG (1w,1m,0d)</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Hadern.1483570.html</t>
-  </si>
-  <si>
-    <t>Mehrfamilienhaus
+    <t>13m²</t>
+  </si>
+  <si>
+    <t>4er WG (2w,1m,0d)</t>
+  </si>
+  <si>
+    <t>13.09.2021</t>
+  </si>
+  <si>
+    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-top-WG-zimmer.4061496.html</t>
+  </si>
+  <si>
+    <t>Reihenhaus
 2. OG
-möbliert
 Badewanne
-WLAN
-Kabel
-Parkett, PVC
-Zentralheizung
-Bewohnerparken
-6 Minuten zu Fuß entfernt
-Fahrradkeller, Aufzug</t>
-  </si>
-  <si>
-    <t>NOCH FREI!! Ideal für Pendler! Helles, schönes Zimmer (ca. 9 qm, Westseite – schön sonnig, ruhig, viel Grün, großes Fenster) in freundlicher 4-Zi.-Whg. bei Mutter mit 21-jährigem Sohn (Azubi) nur an weibliche, berufstätige (mit festen Arbeitszeiten) und regelmäßige WOCHENENDHEIMFAHRERIN (jedes Wochenende, deutschsprachig - dies wäre die einzige Voraussetzung!) zu vermieten. Das Zimmer ist modern möbliert: Bett (100 x 200 cm), Schreibtisch, Stuhl, Schrank, TV, Regal), Bad- und Küchenmitbenutzung, Spül- und Kaffeemaschine, Mikrowelle vorhanden. Rauchen in der Whg. erlaubt. Miete: 310,- EUR inkl. ab 01.10.21 in Großhadern (7 Geh-Minuten zur U6 - Endstation Klinikum Großhadern).
-Bitte in der Anfrage schreiben, ob du eine Wochenendheimfahrerin bist, ansonsten werden Anfragen gelöscht.</t>
-  </si>
-  <si>
-    <t>U-Bahn in 7 Gehminuten, Penny, Rewe, Edeka, Metzger, Bäcker, Ärzte alles fußläufig gut erreichbar. Mit U-Bahn in 17 Minuten am Marienplatz. Mit Bus in 15 Minuten in Pasing.
-Ruhige Lage am Stadtrand Münchens mit viel Grün, Wald und Park.</t>
-  </si>
-  <si>
-    <t>Nette Mama mit 21-jährigem Sohn (Azubi), sind beide unkompliziert ;-)
-Es müssen von Dir keine Putzarbeiten übernommen werden, wie Toilette oder Bad putzen, keine Spülmaschine ausräumen, kein saugen und wischen ;-))
-Du bist aber allein für Dein Zimmer verantwortlich (wird von uns nicht betreten).</t>
-  </si>
-  <si>
-    <t>Kaution: 300,-- EUR.
-Kündigungsfrist: 4 Wochen.
-Gerne längerfristig zu mieten.</t>
-  </si>
-  <si>
-    <t>01.11.2022</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Lerchenau.8896250.html</t>
-  </si>
-  <si>
-    <t>Reihenhaus
-3. OG
-Badewanne
-WLAN
+DSL, Flatrate, WLAN 26-50 Mbit/s
+Satellit
 Laminat
 Zentralheizung
 gute Parkmöglichkeiten
-3 Minuten zu Fuß entfernt
-Waschmaschine, Spülmaschine, Balkon, Keller, Fahrradkeller</t>
-  </si>
-  <si>
-    <t>Hallo :)
-bei uns in der 3er WG in der Nähe vom Olympiaeinkaufszentrum wird zum 1.10.2021 (ab sofort beziehbar) ein unmöbliertes Zimmer frei.
-Die Wohnung ist seit Februar 2019 neu renoviert und liegt im 3. Stock des Gebäudes.
-Das Zimmer ist hell und hat einen neuen Laminatboden. Man hat genügend Platz, um es sich gemütlich zu machen.
-Außerdem ist die Wohnung mit einer eingerichteten Gemeinschaftsküche ausgestattet, welche eine Spülmaschine, einen großen Kühlschrank und eine Mikrowelle besitzt. Im Bad befindet sich eine Waschmaschine.
-Vom Balkon aus schaut man ins Grüne und kann dort schöne Sommerabende verbringen.
-Der Keller bietet einen Trockenraum für Wäsche, einen Fahrradraum und ein absperrbares Abteil für die WG, um weitere Sachen zu verstauen.
-Die Miete beträgt 460 Euro warm + 40 Euro für Internet, GEZ und Strom.</t>
-  </si>
-  <si>
-    <t>Die S-Bahn Station "Fasanerie" (S1) ist zu Fuß oder mit dem Fahrrad in wenigen Minuten erreichbar. Außerdem ist man in 3min zu Fuß an der Bushaltestelle "Lerchenauersee", wo man in die Linie 60 zum OEZ oder Richtung Hasenbergel fahren kann. Am OEZ hat man die Möglichkeit in mehrere U-Bahnen Richtung Stadtmitte umzusteigen.
-Die Wohnung liegt zwischen dem Lerchenauer See und dem Fasanariesee, welche eine tolle Möglichkeit bieten einfach mal raus zu kommen und zu schwimmen, zu grillen oder spazieren zu gehen.
-Einkaufsmöglichkeiten sind auch in wenigen Minuten erreichbar zu Fuß, mit dem Fahrrad oder mit dem Bus. Ganz in der Nähe ist ein Edeka und ein Penny. Außerdem findest du in nur 5min Entfernung (zu Fuß) einen Bäcker, eine Apotheke, einen Friseur, die Post sowie zwei Sparkassen-Automaten.</t>
-  </si>
-  <si>
-    <t>Deine zwei zukünftige*n Mitbewohner*in sind sehr nett und hilfsbereit. Ich habe hier super gerne gewohnt und tolle Gespräche geführt und dabei zwei tolle Menschen kennengelernt.
-Ram promoviert im Bereich der Biologie und Gani macht eine Ausbildung zur Zahnarzthelferin und befindet sich im dritten Lehrjahr. Wir suchen jemanden der Deutsch und Englisch spricht, da Ram nur Englisch spricht und sich natürlich trotzdem sehr gerne mit dir unterhalten möchte. Du solltest an einem angenehmen Zusammenwohnen interessiert sein und dich in die WG integrieren wollen.
-Gerne bestellen wir abends zusammen Essen oder unterhalten uns während dem Kochen.
-Es wäre uns wichtig, dass du kein Problem mit einem Putzplan hast. Gani und Ram sind beide sehr ordentlich und das solltest du auch sein.
-Also wenn du dich angesprochen fühlst, schreib mir einfach ein paar Zeilen über dich! :)
-Gerne würden wir die Besichtigungen am 19. September machen. Also halte dir diesen Tag frei, wenn du Interesse hast. Wir können nämlich leider keine zusätzlichen Termine an anderen Tagen machen.
-Liebe Grüße,
-Natalia</t>
-  </si>
-  <si>
-    <t>359€</t>
-  </si>
-  <si>
-    <t>34m²</t>
-  </si>
-  <si>
-    <t>Online: 4 Stunden</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Schwabing-West.6470347.html</t>
-  </si>
-  <si>
-    <t>sanierter Altbau
-Hochparterre
-möbliert
-Badewanne, Dusche
-DSL, Flatrate, WLAN 11-16 Mbit/s
-Kabel
-Teppich, Parkett, Fliesen
-Zentralheizung
-Bewohnerparken
-4 Minuten zu Fuß entfernt
-Waschmaschine, Spülmaschine, Balkon, Gartenmitbenutzung, Keller, Fahrradkeller, Aufzug</t>
-  </si>
-  <si>
-    <t>Die Studentenwohnung liegt im Parterre eines Mehrfamilienhauses. Dein Zimmer ist hell und hat ein großes Fenster in Richtung Straße. Eine gemütliche Einrichtung aus Bett, Schrank Schreibtisch und Regal steht schon für Dich bereit.
-Die Wohnung bietet ansonsten alles, was man sich nur wünschen kann - eine große Küche mit kompletter Einrichtung (Backofen, Herd, Mikrowelle), Spülmaschine und Waschmaschine, ein riesiges Wohnzimmer mit Bar, ein großes Bad mit separater Toilette und einen kleinen Balkon zum Innenhof. Der Garten des Hauses kann mitgenutzt werden. Dein Fahrrad findet im Fahrradkeller problemlos Platz.</t>
-  </si>
-  <si>
-    <t>Die Wohnung liegt im Herzen von Schwabing, jeweils ca. 3 Minuten vom Hohenzollernplatz und vom Josephsplatz entfernt. Von dort kommst Du mit dem Fahrrad in 4 Minuten zum TU-Stammgelände und in weniger als 10 Minuten zur LMU. In unmittelbarer Nähe findest Du zum Beispiel Bäcker, Netto, Rewe, Lidl, Karstadt, ein italienisches und ein chinesisches Restaurant, etc.</t>
-  </si>
-  <si>
-    <t>Wir sind ein katholischer Studentenverein. Während des Semesters stellen wir gemeinsam ein vielseitiges Programm auf die Beine mit wissenschaftlichen Vorträgen von hochkarätigen Rednern, gemeinsamen Reisen, Ausflügen und Gottesdienstbesuchen.
-Neben diesem offiziellen Programm unternehmen wir aber auch sonst sehr viel miteinander: wir schauen zum Beispiel zusammen Fußball, Football und co., gehen zusammen feiern, kochen gemeinsam, oder lassen es uns im Biergarten gutgehen.
-Uns wäre es wichtig, dass Du Interesse daran hast, uns während Deines ersten Semesters - ganz unverbindlich - kennen zu lernen und Dich an unserem Programm zu beteiligen.
-Mehr über uns erfährst Du unter www.unitas-muenchen.de .
-Um noch einige häufige Fragen vorab zu beantworten: studentisches Fechten lehnen wir ab und farbentragend sind wir auch nicht.</t>
-  </si>
-  <si>
-    <t>Nach Absprache ist auch ein späterer oder früherer Einzugstermin möglich. Bitte geben Sie bei Ihrer Bewerbung auch Ihre Konfession, das aktuelle Semester und Ihren Studiengang an.</t>
-  </si>
-  <si>
-    <t>15.09.2021</t>
-  </si>
-  <si>
-    <t>01.02.2022</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Ludwigsvorstadt-Isarvorstadt.8918858.html</t>
-  </si>
-  <si>
-    <t>3 Minuten zu Fuß entfernt</t>
-  </si>
-  <si>
-    <t>Hallo Ihr da draußen!
-Wir, Simon Software Entwickler, 26 und Lukas Gesangsstudent, 25, suchen vom 15. September bis 1. November, mit Zimmerwechsel eventuell sogar bis bis 1. Februar (s.u.) eine*n Untermieter*in für ein 22 m² Zimmer in unserer etwas heruntergekommenen (aber mit Charme!), gemütlichen viereinhalb Zimmerwohnung, dem Zenettipalast, mit einem Wohnzimmer und einer sehr großen Küche, die wir dann zu dritt bewohnen würden.
-Direkt zwischen Isar und Theresienwiese liegt die Wohnung sehr ruhig (ausgenommen Kirchturm) in einem Hinterhof in der Nähe der U-Bahn Haltestelle Poccistraße, wo es alle erdenklichen Einkaufsmöglichkeiten gibt. Am wichtigsten zu erwähnen erscheint jedoch, dass wir einen Bierspezialitäten Laden direkt vor der Haustür („Bierkiste“) haben, durstig wird es euch also nicht werden, denn wir trinken beide gerne mal das ein- oder andere Hälbchen.
-Wir sind beide auch mal recht gerne in den Bergen-, an der Welle oder mit Freunden unterwegs, da könnt ihr euch gerne anschließen, wir sind gespannt auf neue interessante Menschen-Kreise in München und offen für fast alles!
-Wir würden uns freuen, wenn ihr für diese Zeit unser Trio wieder komplettiert und hoffen, eine gute Zeit mit euch zu verbringen!
-Da die Wohnung ohnehin nicht mehr wirklich zu retten ist, solltet ihr nicht allzuviel wert auf Sauberkeit und Ordnung legen, bei uns steht die gute Stimmung im Vordergrund…
-Besichtigungen machen wir Montag und Dienstag von 17 bis 19:00 Uhr, Wir freuen uns euch kennen zu lernen!
-(Da Simon im November eventuell nach Valencia für vier Monate zieht, könntet ihr sobald Yue, Neurologin, 31, am 1. November einzieht, direkt in Simons Zimmer wechseln, alles das klären wir am besten bei der Wohnungsbesichtigung....)
-Liebe Grüße
-Simon und Lukas</t>
-  </si>
-  <si>
-    <t>365€</t>
-  </si>
-  <si>
-    <t>13.09.2021</t>
-  </si>
-  <si>
-    <t>31.03.2022</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Schwanthalerhoehe-Laim.6608342.html</t>
-  </si>
-  <si>
-    <t>sanierter Altbau
-möbliert
-Dusche
-DSL, Flatrate, WLAN
-Parkett, Laminat
-Zentralheizung
-3 Minuten zu Fuß entfernt
-Waschmaschine, Spülmaschine, Garten, Fahrradkeller</t>
-  </si>
-  <si>
-    <t>Lieber Bewerber oder Bewerberin,
-das Zimmer ist 15 m² groß, grundmöbliert und verfügt über ein Bett, Kleiderschrank, einen Stuhl und Schreibtisch. Weitere Möbelstücke für den eigenen Bedarf können aber nach Absprache gerne mitgebracht werden. Im Haus gibt es hervorragendes W-LAN.
-Die Wohnetagen bestehen aus jeweils drei bis sechs Zimmern, einer Küche mit Spülmaschine, sowie zwei Bädern mit Toilette, Trockner, Dusche und Waschmaschine.</t>
-  </si>
-  <si>
-    <t>Das Haus befindet sich zentral im Münchener Westend - an der Schwanthalerhöhe, 5 Gehminuten von der Theresienwiese entfernt. Innerhalb von ca. 5 Minuten kann sowohl die Tram 18/19 (Holzapfelstraße), als auch die S-Bahn-Stammstrecke an der Hackerbrücke und die U-Bahn 4/5 (Schwanthalerhöhe oder Theresienwiese) bequem erreicht werden. Den Hauptbahnhof München kannst du innerhalb von 10 Minuten ansteuern.
-In unmittelbarer Nähe befinden sich diverse Supermärkte wie Aldi, Edeka, Lidl und Co, sowie das Schwanthaler Forum (Einkaufszentrum).
-An Kneipen und Restaurants ist im Westend für jeden Geschmack etwas zu finden, bei Feierbedarf ist man innerhalb von 10 min. in der Innenstadt.</t>
-  </si>
-  <si>
-    <t>Unser Studentenwohnheim bietet 20 Zimmer, verteilt auf vier Stockwerke:
-Die Bewohner sind allesamt Studenten und Studentinnen unterschiedlichster Fachrichtungen.
-Wir vermieten unsere Zimmer an Studentinnen und Studenten, die Interesse an einer netten Gemeinschaft und einem herzlichen WG-Alltag haben. Wir suchen Mitbewohner/innen, die nicht nur auf eine Zwecks-WG aus sind, sondern auch Freude dran haben, sich zu integrieren und offen für Unternehmungen und schöne Gemeinschaftsabende sind. Wenn dir das zusagt, bist du bei uns genau richtig!
-Unsere Gemeinschaftsräume umfassen eine große Küche, ein Wohnzimmer und im Erdgeschoss ein wunderbarer Tresen mit kühlen Getränken und einem Kicker.
-Im Hof haben wir eine Terrasse mit Garten, wo es sich im Sommer anbietet, bei Sonnenschein zu Lernen und zu Grillen oder einfach nur ein wenig Grün innerhalb Müchens zu genießen.</t>
-  </si>
-  <si>
-    <t>Ich freue mich auf eine aussagekräftige "Bewerbung" von dir, in der du dich vorstellst. Je genauer, desto besser denn wir bekommen viele Anfragen. Außerdem wäre es schön, wenn du deine Interessen und Hobbys erläutern würdest. Wenn wir denken es kann passen, gebe ich dir meine Telefonnummer und wir können weiteres auf WhatsApp besprechen.
-Ich freue mich darauf, dich vielleicht bald bei uns begrüßen zu dürfen!</t>
-  </si>
-  <si>
-    <t>415€</t>
-  </si>
-  <si>
-    <t>16m²</t>
-  </si>
-  <si>
-    <t>Online: 7 Stunden</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Bogenhausen.8603644.html</t>
-  </si>
-  <si>
-    <t>möbliert
-Badewanne
-DSL, Flatrate, WLAN
-Kabel, Satellit
-PVC, Fußbodenheizung
-Waschmaschine, Balkon, Garten, Fahrradkeller, Haustiere erlaubt</t>
-  </si>
-  <si>
-    <t>Mit Balkon ist die Wohnung voll möbliert, Waschmaschine, Geschirrspüler, alles ist vorhanden. Ihr möbliert, es misst 16qm und ist möbliert. Das Bett, das Regal, die Kommode und die Kleiderstange sind alles, was Sie für ein paar Monate brauchen. Es kostet alles inklusive</t>
-  </si>
-  <si>
-    <t>100m entfernt ist der nächste Discounter nur noch 100m entfernt ... Und wenn Sie gerne auf dem Land liegen oder joggen ... Gute Infrastruktur mit Bioläden und Bäckerei, Obst- und Gemüseläden, Kaisers, Kopierladen, verschiedenen Spätis und ausreichend Cafés , Restaurants und Clubs um die Ecke.</t>
-  </si>
-  <si>
-    <t>In der Wohngemeinschaft leben nur zwei von uns. Oder du allein, weil ich oft zur Arbeit unterwegs bin. Zu Hause in München bin ich sehr unternehmungslustig, ob draußen in der Bar oder drinnen vor dem Bildschirm.
-Das Wohnen in einer Wohngemeinschaft findet hauptsächlich im Gemeinschaftswohnzimmer statt. Entweder vor der Projektionswand, Tischfußball spielen oder bequem auf dem Balkon sitzen. Freunde sind immer willkommen.</t>
-  </si>
-  <si>
-    <t>Bitte schreiben Sie ein paar kurze Sätze über sich selbst per E-Mail mit Ihrer Handynummer. Ich werde mich dann kurzfristig mit Ihnen in Verbindung setzen, um einen Besichtigungstermin zu vereinbaren ...</t>
-  </si>
-  <si>
-    <t>430€</t>
-  </si>
-  <si>
-    <t>19m²</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Bogenhausen.8906772.html</t>
-  </si>
-  <si>
-    <t>möbliert
-Badewanne
-DSL, Flatrate, WLAN
-Kabel, Satellit
-Laminat, Fußbodenheizung
-Waschmaschine, Balkon, Garten, Fahrradkeller, Aufzug, Haustiere erlaubt</t>
-  </si>
-  <si>
-    <t>Die Decken sind mit Stuck versehen. Es gibt auch einen schönen, alten und funktionellen Kachelofen im Zimmer. Das Zimmer hat zwei Fenster und befindet sich im 3. Stock. Das Badezimmer ist klein, aber modern und fein. Die kleine Küche ist mit allem ausgestattet was man braucht. Das Zimmer ist 19 qm groß, hat einen Holzboden und ein Fenster mit Blick auf den Hinterhof nach Süden.</t>
-  </si>
-  <si>
-    <t>Penny und Lidl sind fünf Minuten entfernt. Zwei Cafés und ein Kiosk sind nur einen Steinwurf entfernt. Auch rund um den Hauptbahnhof gibt es Geschäfte, allerdings gibt es jetzt keinen Supermarkt direkt an der Straße. Die WG befindet sich in einem Altbau in einem Hinterhof. Die Lage ist sensationell</t>
-  </si>
-  <si>
-    <t>Wenn ein oder zwei Freunde oder Nachbarn bei unserer Crew vorbeischauen, können wir schnell eine schöne Runde zusammen machen. Auf jeden Fall trifft man sich öfter in der Küche und manchmal wird gekocht. Aber hin und wieder schaffen wir es trotzdem zu kochen und uns auszutauschen. Für mich ist mein Zuhause eher ein entspannter Rückzugsort, an dem ich Kraft tanke und mir oft Zeit für mich nehme.</t>
-  </si>
-  <si>
-    <t>Schreibe in der Mail ein paar Sätze über dich und was dir beim Zusammenleben wichtig ist, inklusive Foto von dir und ob du dich für die Möbel interessierst.</t>
-  </si>
-  <si>
-    <t>450€</t>
-  </si>
-  <si>
-    <t>Online: 8 Stunden</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Maxvorstadt.8907693.html</t>
-  </si>
-  <si>
-    <t>möbliert
-DSL, WLAN
-Kabel, Satellit
-Waschmaschine, Spülmaschine</t>
-  </si>
-  <si>
-    <t>Helles und großes und Zimmer in bester Lage zwischen beiden Universitäten. 18m² groß und lichtdurchflutet.
-Dazu gehören eine große Gemeinschaftsküche, ein Badezimmer mit Dusche und eine kleine Abstellkammer. Im Flur wäre außerdem Platz für einen weiteren Schrank. Genaue Bilder oder eine Besichtigung gibt es nach Absprache.</t>
-  </si>
-  <si>
-    <t>Die Wohnung ist in einer Nebenstraße der Barer Straße gelegen und damit inmitten der jungen und pulsierenden Maxvorstadt. Mit 5 Gehminuten zu beiden Universitäten ist sie perfekt für Studenten und angehende Studenten angesiedelt. Durch die Lage im dritten Stock bleibt kaum Straßenlärm und man kann problemlos auch im Sommer mit offenem Fenster schlafen.</t>
-  </si>
-  <si>
-    <t>Besichtigungen können wir gerne auch online machen, falls dir das im Moment lieber ist. Ich bin abends sehr flexibel und freue mich darauf dich näher kennenzulernen. Am besten Du gibst mir dann direkt deine Nummer, dann können wir kurz telefonieren für einen Termin zur Besichtigung.
-Ich freue mich über eure Nachrichten.</t>
-  </si>
-  <si>
-    <t>493€</t>
-  </si>
-  <si>
-    <t>17m²</t>
-  </si>
-  <si>
-    <t>Online: 9 Stunden</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Maxvorstadt.8826990.html</t>
-  </si>
-  <si>
-    <t>Barrierefrei
-möbliert
-Badewanne, Dusche
-Kabel, Satellit
-Laminat
-Waschmaschine, Spülmaschine, Balkon, Keller, Fahrradkeller</t>
-  </si>
-  <si>
-    <t>Das Appartment bietet Dir neben einem eigenen großen Zimmer auch ein eigenes Bad und eine eigene kleine Küche, die in das Zimmer integriert ist. Außerdem hat das Zimmer einen Balkon. Es ist liebevoll eingerichtet mit Bücherregalen, Kommode, Schreibtisch und Sofa. Ein Bett kann selbst mitgebracht werden oder von uns organisiert werden. Es gibt auch eine große Küche für die ganze WG, die gleichzeitig als Wohnzimmer dient.</t>
-  </si>
-  <si>
-    <t>Das heißt du solltest dich hier nur bewerben, wenn du keinen anderen Nebenjob hast, Mit dem Studentenleben und kleinen Nebenjobs ist das Wohnen hier gut vereinbar und man kommt nicht in Zeitschwierigkeiten, da es hier keine festen Arbeitszeiten gibt, sondern Unternehmungen mit den Mitbewohnern flexibel abgesprochen werden.</t>
-  </si>
-  <si>
-    <t>Wir sind eine inklusive Wohngemeinschaft, das heißt zwei von vier Mitbewohnern haben eine leichte Behinderung. Der Mietvertrag ist an einen Arbeitsvertrag gekoppelt, aber man muss hier keine pädagogischen oder pflegerischen Aufgaben übernehmen, sondern einfach nur mit der WG chillen, wie man es sonst in einer nicht-inklusiven WG auch macht, z.B. Filme gucken, Kochen, Ausflüge. Wir sind auch Partys gegenüber sehr aufgeschlossen und freuen uns immer, wenn ein Mitbewohner Freunde einlädt! Hier herrscht eine liebevolle, positive.
-Es macht nicht nur unglaublich Spaß, sondern erweitert auch den eigenen Horizont!
-Wir würden uns sehr freuen, Dich kennenzulernen! Lass Dich nicht davon abschrecken, dass diese WG so "anders" wirkt als andere oder dass Du hier irgendwelche Verpflichtungen eingehst, denn sobald Du uns kennenlernst, wirst du merken, dass wir eine ganz normale WG sind und hier alles ganz locker und entspannt läuft! :)</t>
-  </si>
-  <si>
-    <t>Die WG-Gemeinschaft investiert und sozusagen arbeitet, Da der Mietvertrag an einen Arbeitsvertrag gekoppelt ist, muss vom Arbeitgeber überprüft werden, ob du vertraglich hier aufgenommen werden kannst.
-(Bitte melde Dich nur, wenn Du auch wirklich am Projekt und dieser Art des Zusammenlebens Interesse hast)</t>
-  </si>
-  <si>
-    <t>Online: 18 Stunden</t>
-  </si>
-  <si>
-    <t>https://www.wg-gesucht.de/wg-zimmer-in-Munchen-Maxvorstadt.8871738.html</t>
-  </si>
-  <si>
-    <t>Barrierefrei</t>
-  </si>
-  <si>
-    <t>¡¡¡BESCHREIBUNG LESEN!! Aufgrund der hohen Bewerberzahl, können wir nur die Bewerbungen berücksichtigen, die die von uns genannten Fragen (weiter unten im Text) beantwortet und ein Motivationschreiben beiliegen haben!!!
-¡¡¡Wir sind keine Zweck-WG!!!
-Hallo,
-wir sind die Landsmannschaft Teutonia - eine schlagende Studentenverbindung!??
-wenn du in München studierst und dabei Freundschaft und Spaß nicht zu kurz kommen lassen willst, bist du genau richtig bei uns.
-Natürlich gibt es unsere Zimmer nicht ganz umsonst, sondern wir erhoffen uns von jedem Bewerber, dass sich dieser auch für unseren lebenslangen Freundschaftsbund interessiert.
-Interessiert? Dann schreib uns eine ausführliche E-Mail, stell dich vor und schildere uns, warum DU eine Bereicherung für uns wärst. Was bringst du mit? Welcher Typ Mensch bist du? Was erhoffst du dir von uns?
-Wir sind nicht an einer kurzzeitigen Zweck-Wg interessiert - aber an einem aufgeschlossenem Miteinander junger Studenten.
-Unsere Zimmer sind voll möbliert, es gibt ein Bad mit Dusche und eine Gemeinschaftsküche, sowie mehrere Gemeinschaftsräume im Haus. Durch zahlreiche Extras, wie Selbstbedienungskühlschrank, Kicker, TV, Tischtennisplatte, Garten mit Grill, Kneipsaal, und, und, und... sind die besten Voraussetzungen für das gemütliche Zusammenleben gegeben.
-Hoffentlich bis demnächst und mit besten Grüßen!</t>
-  </si>
-  <si>
-    <t>Unser schönes Haus liegt direkt am Königsplatz, mitten im Herzen der wunderschönen Maxvorstadt.
-Die Anbindungen an den ÖPNV (Bus,Tram,U-Bahn) sind sehr schnell zu erreichen, in knapp 2 Minuten. Supermärkte, sowie alle anderen Einrichtungen des täglichen Bedarfs liegen in kurzer Laufreichweite.
-Die bekannten Münchner Universitäten (LMU,TU,FH) sind fußläufig in weniger als 20 Minuten zu erreichen, ebenso liegt der Englische Garten nur einen Katzensprung von unserem Haus.</t>
-  </si>
-  <si>
-    <t>Wir sind eine sowohl politisch als auch religiös neutrale und tolerante Studentenverbindung im Herzen Münchens.
-Wir bilden ein Netzwerk aus Studierenden und Studierten einer Vielzahl verschiedener Fachrichtungen. Durch die große Vielfalt unserer Mitglieder lebt die Gemeinschaft von Offenheit, gegenseitigem Interesse und Hilfsbereitschaft.
-Es würde uns freuen, wenn du einfach mal vorbei schaust und dir deine eigene Meinung von uns machst!
-Informationen über uns findest du auf:
-www.teutonia-muenchen.de</t>
-  </si>
-  <si>
-    <t>Wir suchen fraunliche und männliche Studenten die an einem längerfristigen Aufenthalt in München interessiert sind. Wir sind eine fast 200 Jahre alte Studentenverbindung, dass wir nur Männer aufnehmen ist ausschliesslich eine Tradition unf keine Diskriminierung. Wir bitten um das Verständnis!
-Wir freuen uns Dich näher kennenzulernen!
-P.S. Kontakt kann auch über die E-Mail Adresse aufgenommen werden oder per Whatsapp:
-MAIL
-(siehe unten)</t>
+Waschmaschine, Terrasse</t>
+  </si>
+  <si>
+    <t>hallo.... wir haben ein schönes wg zimmer zu vermieten.
+Momentan vermiete ich Zwei Zimmer!! eins wie in der Anzeige und das andere ist ca 18qm gross und kostet 500,00
+es liegt zwar ausserhalb von München aber ich
+finde sehr zentral, 10 min zum flughafen... 15 min nach Garching Uni und 30
+min in die münchner innenstadt/...wir sind zurzeit eine zweier wg. Wir suchen eine nette Mitbewohnerin die nicht an einer Zweck WG interessiert ist sondern auch mal ein Bierchen/Wein trinkt oder wir mal zusammen was kocht oder bei schönen Wetter zusammen Grillen-)
+ruft mich an oder schreibt mir whatsapp... falls ich nicht dran gehen kann da ich
+berufstätig bin dann ruf ich zurück,,. ..0176-41066666
+nochmals möchte ich Daraufhinweisen das wir nur an FRAUEN vernieten!! und auch nicht an PAARE!!!
+Das Zimmer befindet sich in Neufahrn</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,223 +804,226 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1327,310 +1041,51 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M15" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L18" t="s">
-        <v>136</v>
-      </c>
-      <c r="M18" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1644,14 +1099,6 @@
     <hyperlink ref="H8" r:id="rId7"/>
     <hyperlink ref="H9" r:id="rId8"/>
     <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
